--- a/output/clean_data_central_africa.xlsx
+++ b/output/clean_data_central_africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>country_index</t>
   </si>
@@ -55,6 +55,9 @@
     <t>pct_agriculture_employment</t>
   </si>
   <si>
+    <t>gni_index</t>
+  </si>
+  <si>
     <t>pct_industry_employment</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>fdi_pct_gdp</t>
   </si>
   <si>
-    <t>gni_index</t>
-  </si>
-  <si>
     <t>gdp_usd</t>
   </si>
   <si>
@@ -82,12 +82,6 @@
     <t>internet_usage_pct</t>
   </si>
   <si>
-    <t>homicides_per_100k</t>
-  </si>
-  <si>
-    <t>adult_literacy_pct</t>
-  </si>
-  <si>
     <t>child_mortality_per_1k</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>women_in_parliament</t>
   </si>
   <si>
-    <t>tax_revenue_pct_gdp</t>
-  </si>
-  <si>
     <t>unemployment_pct</t>
   </si>
   <si>
@@ -109,19 +100,82 @@
     <t>urban_population_growth_pct</t>
   </si>
   <si>
+    <t>m_income_group</t>
+  </si>
+  <si>
+    <t>m_access_to_electricity_pop</t>
+  </si>
+  <si>
+    <t>m_access_to_electricity_rural</t>
+  </si>
+  <si>
+    <t>m_access_to_electricity_urban</t>
+  </si>
+  <si>
+    <t>m_CO2_emissions_per_capita</t>
+  </si>
+  <si>
     <t>m_compulsory_edu_yrs</t>
   </si>
   <si>
+    <t>m_pct_female_employment</t>
+  </si>
+  <si>
+    <t>m_pct_male_employment</t>
+  </si>
+  <si>
+    <t>m_pct_agriculture_employment</t>
+  </si>
+  <si>
+    <t>m_pct_industry_employment</t>
+  </si>
+  <si>
+    <t>m_pct_services_employment</t>
+  </si>
+  <si>
+    <t>m_exports_pct_gdp</t>
+  </si>
+  <si>
+    <t>m_fdi_pct_gdp</t>
+  </si>
+  <si>
+    <t>m_gdp_usd</t>
+  </si>
+  <si>
+    <t>m_gdp_growth_pct</t>
+  </si>
+  <si>
     <t>m_incidence_hiv</t>
   </si>
   <si>
+    <t>m_internet_usage_pct</t>
+  </si>
+  <si>
     <t>m_homicides_per_100k</t>
   </si>
   <si>
     <t>m_adult_literacy_pct</t>
   </si>
   <si>
+    <t>m_child_mortality_per_1k</t>
+  </si>
+  <si>
+    <t>m_avg_air_pollution</t>
+  </si>
+  <si>
+    <t>m_women_in_parliament</t>
+  </si>
+  <si>
     <t>m_tax_revenue_pct_gdp</t>
+  </si>
+  <si>
+    <t>m_unemployment_pct</t>
+  </si>
+  <si>
+    <t>m_urban_population_pct</t>
+  </si>
+  <si>
+    <t>m_urban_population_growth_pct</t>
   </si>
   <si>
     <t>Central Africa 1</t>
@@ -575,13 +629,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:55">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,8 +744,62 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:55">
       <c r="A2" s="1">
         <v>32</v>
       </c>
@@ -699,16 +807,16 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -735,19 +843,19 @@
         <v>91.10299683</v>
       </c>
       <c r="O2">
+        <v>290</v>
+      </c>
+      <c r="P2">
         <v>2.549000025</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6.34800005</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7.76818252</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.642421428</v>
-      </c>
-      <c r="S2">
-        <v>290</v>
       </c>
       <c r="T2">
         <v>3093647227</v>
@@ -762,49 +870,103 @@
         <v>1.38</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="Y2">
-        <v>61.56972885</v>
+        <v>47.08506861</v>
       </c>
       <c r="Z2">
-        <v>77.90000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="AA2">
-        <v>47.08506861</v>
+        <v>1.570000052</v>
       </c>
       <c r="AB2">
-        <v>30.5</v>
+        <v>11.761</v>
       </c>
       <c r="AC2">
-        <v>16.92218544</v>
+        <v>5.480228006</v>
       </c>
       <c r="AD2">
-        <v>1.570000052</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.761</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.480228006</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:55">
       <c r="A3" s="1">
         <v>33</v>
       </c>
@@ -812,16 +974,16 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>87.87672424</v>
@@ -848,19 +1010,19 @@
         <v>68.65499878</v>
       </c>
       <c r="O3">
+        <v>3310</v>
+      </c>
+      <c r="P3">
         <v>6.922999859</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>24.42200089</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>40.36113967</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9.718943229000001</v>
-      </c>
-      <c r="S3">
-        <v>3310</v>
       </c>
       <c r="T3">
         <v>1858121723</v>
@@ -875,49 +1037,103 @@
         <v>40.26</v>
       </c>
       <c r="X3">
-        <v>12.6</v>
+        <v>23</v>
       </c>
       <c r="Y3">
-        <v>91.8724823</v>
+        <v>42.09588617</v>
       </c>
       <c r="Z3">
-        <v>23</v>
+        <v>20.8</v>
       </c>
       <c r="AA3">
-        <v>42.09588617</v>
+        <v>10.34799957</v>
       </c>
       <c r="AB3">
-        <v>20.8</v>
+        <v>64.84</v>
       </c>
       <c r="AC3">
-        <v>16.92218544</v>
+        <v>2.315808738</v>
       </c>
       <c r="AD3">
-        <v>10.34799957</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>64.84</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.315808738</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:55">
       <c r="A4" s="1">
         <v>44</v>
       </c>
@@ -925,16 +1141,16 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>72.91772460999999</v>
@@ -961,19 +1177,19 @@
         <v>54.98300171</v>
       </c>
       <c r="O4">
+        <v>830</v>
+      </c>
+      <c r="P4">
         <v>15.57699966</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>29.44099998</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>16.87471351</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.72227588</v>
-      </c>
-      <c r="S4">
-        <v>830</v>
       </c>
       <c r="T4">
         <v>647720707.1</v>
@@ -988,31 +1204,31 @@
         <v>6.98</v>
       </c>
       <c r="X4">
-        <v>2.55</v>
+        <v>78.3</v>
       </c>
       <c r="Y4">
-        <v>91.8724823</v>
+        <v>17.11820358</v>
       </c>
       <c r="Z4">
-        <v>78.3</v>
+        <v>3</v>
       </c>
       <c r="AA4">
-        <v>17.11820358</v>
+        <v>4.361999989</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>28.193</v>
       </c>
       <c r="AC4">
-        <v>16.92218544</v>
+        <v>2.699437729</v>
       </c>
       <c r="AD4">
-        <v>4.361999989</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>28.193</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.699437729</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1021,16 +1237,70 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:55">
       <c r="A5" s="1">
         <v>45</v>
       </c>
@@ -1038,16 +1308,16 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <v>13.5</v>
@@ -1074,19 +1344,19 @@
         <v>81.34899901999999</v>
       </c>
       <c r="O5">
+        <v>440</v>
+      </c>
+      <c r="P5">
         <v>12.20400047</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>6.447000027</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>36.83218885</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>5.131664248</v>
-      </c>
-      <c r="S5">
-        <v>440</v>
       </c>
       <c r="T5">
         <v>35917650630</v>
@@ -1101,31 +1371,31 @@
         <v>3</v>
       </c>
       <c r="X5">
-        <v>2.55</v>
+        <v>101</v>
       </c>
       <c r="Y5">
-        <v>91.8724823</v>
+        <v>46.57451961</v>
       </c>
       <c r="Z5">
-        <v>101</v>
+        <v>10.6</v>
       </c>
       <c r="AA5">
-        <v>46.57451961</v>
+        <v>3.707999945</v>
       </c>
       <c r="AB5">
-        <v>10.6</v>
+        <v>41.976</v>
       </c>
       <c r="AC5">
-        <v>16.92218544</v>
+        <v>4.553658283</v>
       </c>
       <c r="AD5">
-        <v>3.707999945</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>41.976</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.553658283</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1134,16 +1404,70 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:55">
       <c r="A6" s="1">
         <v>46</v>
       </c>
@@ -1151,16 +1475,16 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>51.86239243</v>
@@ -1187,19 +1511,19 @@
         <v>38.22900009</v>
       </c>
       <c r="O6">
+        <v>2520</v>
+      </c>
+      <c r="P6">
         <v>25</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>36.77099991</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>72.98675034</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>20.36515297</v>
-      </c>
-      <c r="S6">
-        <v>2520</v>
       </c>
       <c r="T6">
         <v>14177437982</v>
@@ -1214,31 +1538,31 @@
         <v>7.11</v>
       </c>
       <c r="X6">
-        <v>2.55</v>
+        <v>56.5</v>
       </c>
       <c r="Y6">
-        <v>91.8724823</v>
+        <v>53.17355571</v>
       </c>
       <c r="Z6">
-        <v>56.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA6">
-        <v>53.17355571</v>
+        <v>9.998000145000001</v>
       </c>
       <c r="AB6">
-        <v>7.4</v>
+        <v>64.95699999999999</v>
       </c>
       <c r="AC6">
-        <v>16.92218544</v>
+        <v>3.146204713</v>
       </c>
       <c r="AD6">
-        <v>9.998000145000001</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>64.95699999999999</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.146204713</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1247,16 +1571,70 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:55">
       <c r="A7" s="1">
         <v>48</v>
       </c>
@@ -1264,16 +1642,16 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G7">
         <v>61.9</v>
@@ -1300,19 +1678,19 @@
         <v>50.375</v>
       </c>
       <c r="O7">
+        <v>1460</v>
+      </c>
+      <c r="P7">
         <v>5.986000061</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>43.63999939</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>36.6588334</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.240430526</v>
-      </c>
-      <c r="S7">
-        <v>1460</v>
       </c>
       <c r="T7">
         <v>35372603446</v>
@@ -1327,31 +1705,31 @@
         <v>19.2742298</v>
       </c>
       <c r="X7">
-        <v>2.55</v>
+        <v>98.3</v>
       </c>
       <c r="Y7">
-        <v>43.90842056</v>
+        <v>26.27654966</v>
       </c>
       <c r="Z7">
-        <v>98.3</v>
+        <v>9.4</v>
       </c>
       <c r="AA7">
-        <v>26.27654966</v>
+        <v>2.747999907</v>
       </c>
       <c r="AB7">
-        <v>9.4</v>
+        <v>53.479</v>
       </c>
       <c r="AC7">
-        <v>13.97364016</v>
+        <v>3.881971936</v>
       </c>
       <c r="AD7">
-        <v>2.747999907</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>53.479</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>3.881971936</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1360,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1368,8 +1746,62 @@
       <c r="AK7">
         <v>0</v>
       </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:55">
       <c r="A8" s="1">
         <v>61</v>
       </c>
@@ -1377,16 +1809,16 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>67.05870819</v>
@@ -1413,19 +1845,19 @@
         <v>54.96300125</v>
       </c>
       <c r="O8">
+        <v>13140</v>
+      </c>
+      <c r="P8">
         <v>8.237000464999999</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>36.79999924</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>65.9632886</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.772319187</v>
-      </c>
-      <c r="S8">
-        <v>13140</v>
       </c>
       <c r="T8">
         <v>21736500713</v>
@@ -1440,31 +1872,31 @@
         <v>18.86</v>
       </c>
       <c r="X8">
-        <v>2.55</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Y8">
-        <v>91.8724823</v>
+        <v>46.69405811</v>
       </c>
       <c r="Z8">
-        <v>97.09999999999999</v>
+        <v>24</v>
       </c>
       <c r="AA8">
-        <v>46.69405811</v>
+        <v>5.494999886</v>
       </c>
       <c r="AB8">
-        <v>24</v>
+        <v>39.756</v>
       </c>
       <c r="AC8">
-        <v>8.298900808000001</v>
+        <v>4.514037661</v>
       </c>
       <c r="AD8">
-        <v>5.494999886</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>39.756</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>4.514037661</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1473,16 +1905,70 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:55">
       <c r="A9" s="1">
         <v>75</v>
       </c>
@@ -1490,16 +1976,16 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <v>78.3</v>
@@ -1526,19 +2012,19 @@
         <v>44.72000122</v>
       </c>
       <c r="O9">
+        <v>1590</v>
+      </c>
+      <c r="P9">
         <v>14.10700035</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>41.17300034</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>39.52355867</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8.604962551</v>
-      </c>
-      <c r="S9">
-        <v>1590</v>
       </c>
       <c r="T9">
         <v>39086625009</v>
@@ -1553,31 +2039,31 @@
         <v>25.51773743</v>
       </c>
       <c r="X9">
-        <v>2.55</v>
+        <v>63.4</v>
       </c>
       <c r="Y9">
-        <v>91.8724823</v>
+        <v>25.35736494</v>
       </c>
       <c r="Z9">
-        <v>63.4</v>
+        <v>10.9</v>
       </c>
       <c r="AA9">
-        <v>25.35736494</v>
+        <v>2.164000034</v>
       </c>
       <c r="AB9">
-        <v>10.9</v>
+        <v>53.392</v>
       </c>
       <c r="AC9">
-        <v>16.92218544</v>
+        <v>3.550496942</v>
       </c>
       <c r="AD9">
-        <v>2.164000034</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>53.392</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>3.550496942</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1586,16 +2072,70 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:55">
       <c r="A10" s="1">
         <v>102</v>
       </c>
@@ -1603,16 +2143,16 @@
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G10">
         <v>36</v>
@@ -1639,19 +2179,19 @@
         <v>37.63899994</v>
       </c>
       <c r="O10">
+        <v>1260</v>
+      </c>
+      <c r="P10">
         <v>14.90200043</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>47.45899963</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>18.29698092</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.335986481</v>
-      </c>
-      <c r="S10">
-        <v>1260</v>
       </c>
       <c r="T10">
         <v>61448046802</v>
@@ -1666,31 +2206,31 @@
         <v>16.5</v>
       </c>
       <c r="X10">
-        <v>5.9</v>
+        <v>53.5</v>
       </c>
       <c r="Y10">
-        <v>78.73303986000001</v>
+        <v>16.52198912</v>
       </c>
       <c r="Z10">
-        <v>53.5</v>
+        <v>19.1</v>
       </c>
       <c r="AA10">
-        <v>16.52198912</v>
+        <v>11.66699982</v>
       </c>
       <c r="AB10">
-        <v>19.1</v>
+        <v>25.197</v>
       </c>
       <c r="AC10">
-        <v>16.87697939</v>
+        <v>4.304922007</v>
       </c>
       <c r="AD10">
-        <v>11.66699982</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>25.197</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>4.304922007</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1707,8 +2247,62 @@
       <c r="AK10">
         <v>0</v>
       </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:55">
       <c r="A11" s="1">
         <v>146</v>
       </c>
@@ -1716,16 +2310,16 @@
         <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>56.37191391</v>
@@ -1752,19 +2346,19 @@
         <v>36.77999878</v>
       </c>
       <c r="O11">
+        <v>2980</v>
+      </c>
+      <c r="P11">
         <v>12.06200027</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>51.1590004</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>18.43512605</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.818201344</v>
-      </c>
-      <c r="S11">
-        <v>2980</v>
       </c>
       <c r="T11">
         <v>568499000000</v>
@@ -1779,31 +2373,31 @@
         <v>21</v>
       </c>
       <c r="X11">
-        <v>2.55</v>
+        <v>111.6</v>
       </c>
       <c r="Y11">
-        <v>91.8724823</v>
+        <v>41.60273017</v>
       </c>
       <c r="Z11">
-        <v>111.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA11">
-        <v>41.60273017</v>
+        <v>4.559999943</v>
       </c>
       <c r="AB11">
-        <v>6.7</v>
+        <v>46.942</v>
       </c>
       <c r="AC11">
-        <v>16.92218544</v>
+        <v>4.48255153</v>
       </c>
       <c r="AD11">
-        <v>4.559999943</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>46.942</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>4.48255153</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1812,16 +2406,70 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:55">
       <c r="A12" s="1">
         <v>163</v>
       </c>
@@ -1829,16 +2477,16 @@
         <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G12">
         <v>19.8</v>
@@ -1865,19 +2513,19 @@
         <v>68.45300293</v>
       </c>
       <c r="O12">
+        <v>700</v>
+      </c>
+      <c r="P12">
         <v>7.913000107</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>23.63400078</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>14.72211453</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3.926137464</v>
-      </c>
-      <c r="S12">
-        <v>700</v>
       </c>
       <c r="T12">
         <v>8016591928</v>
@@ -1892,31 +2540,31 @@
         <v>10.6</v>
       </c>
       <c r="X12">
-        <v>2.55</v>
+        <v>43.4</v>
       </c>
       <c r="Y12">
-        <v>91.8724823</v>
+        <v>51.86310993</v>
       </c>
       <c r="Z12">
-        <v>43.4</v>
+        <v>63.8</v>
       </c>
       <c r="AA12">
-        <v>51.86310993</v>
+        <v>1.169999957</v>
       </c>
       <c r="AB12">
-        <v>63.8</v>
+        <v>27.841</v>
       </c>
       <c r="AC12">
-        <v>13.31802943</v>
+        <v>6.054470586</v>
       </c>
       <c r="AD12">
-        <v>1.169999957</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>27.841</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>6.054470586</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -1925,16 +2573,70 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:55">
       <c r="A13" s="1">
         <v>168</v>
       </c>
@@ -1942,16 +2644,16 @@
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G13">
         <v>61</v>
@@ -1978,19 +2680,19 @@
         <v>53.67399979</v>
       </c>
       <c r="O13">
+        <v>1030</v>
+      </c>
+      <c r="P13">
         <v>20.20499992</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>26.12100029</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>28.12071229</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2.630373382</v>
-      </c>
-      <c r="S13">
-        <v>1030</v>
       </c>
       <c r="T13">
         <v>15304363138</v>
@@ -2005,31 +2707,31 @@
         <v>17.7</v>
       </c>
       <c r="X13">
-        <v>2.55</v>
+        <v>52.3</v>
       </c>
       <c r="Y13">
-        <v>91.8724823</v>
+        <v>35.99474681</v>
       </c>
       <c r="Z13">
-        <v>52.3</v>
+        <v>43.3</v>
       </c>
       <c r="AA13">
-        <v>35.99474681</v>
+        <v>6.356999874</v>
       </c>
       <c r="AB13">
-        <v>43.3</v>
+        <v>43.393</v>
       </c>
       <c r="AC13">
-        <v>19.6238999</v>
+        <v>3.697122779</v>
       </c>
       <c r="AD13">
-        <v>6.356999874</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>43.393</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>3.697122779</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2038,16 +2740,70 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:55">
       <c r="A14" s="1">
         <v>186</v>
       </c>
@@ -2055,16 +2811,16 @@
         <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>44.9</v>
@@ -2091,19 +2847,19 @@
         <v>53.35599899</v>
       </c>
       <c r="O14">
+        <v>1830</v>
+      </c>
+      <c r="P14">
         <v>18.83399963</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>27.80999947</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8.149134518</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.523136574</v>
-      </c>
-      <c r="S14">
-        <v>1830</v>
       </c>
       <c r="T14">
         <v>82151588419</v>
@@ -2118,31 +2874,31 @@
         <v>24.64</v>
       </c>
       <c r="X14">
-        <v>2.55</v>
+        <v>69</v>
       </c>
       <c r="Y14">
-        <v>91.8724823</v>
+        <v>52.51987476</v>
       </c>
       <c r="Z14">
-        <v>69</v>
+        <v>24.3</v>
       </c>
       <c r="AA14">
-        <v>52.51987476</v>
+        <v>12.74800014</v>
       </c>
       <c r="AB14">
-        <v>24.3</v>
+        <v>33.623</v>
       </c>
       <c r="AC14">
-        <v>16.92218544</v>
+        <v>2.867143272</v>
       </c>
       <c r="AD14">
-        <v>12.74800014</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>33.623</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>2.867143272</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2151,16 +2907,70 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:55">
       <c r="A15" s="1">
         <v>203</v>
       </c>
@@ -2168,16 +2978,16 @@
         <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G15">
         <v>20.4</v>
@@ -2204,19 +3014,19 @@
         <v>71.54699707</v>
       </c>
       <c r="O15">
+        <v>660</v>
+      </c>
+      <c r="P15">
         <v>6.887000084</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>21.56500053</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>18.17025675</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3.878679401</v>
-      </c>
-      <c r="S15">
-        <v>660</v>
       </c>
       <c r="T15">
         <v>27291880327</v>
@@ -2231,31 +3041,31 @@
         <v>16.9</v>
       </c>
       <c r="X15">
-        <v>11.8</v>
+        <v>60.1</v>
       </c>
       <c r="Y15">
-        <v>91.8724823</v>
+        <v>61.38641667</v>
       </c>
       <c r="Z15">
-        <v>60.1</v>
+        <v>35</v>
       </c>
       <c r="AA15">
-        <v>61.38641667</v>
+        <v>1.907999992</v>
       </c>
       <c r="AB15">
-        <v>35</v>
+        <v>15.766</v>
       </c>
       <c r="AC15">
-        <v>16.92218544</v>
+        <v>5.459493493</v>
       </c>
       <c r="AD15">
-        <v>1.907999992</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>15.766</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>5.459493493</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -2267,10 +3077,64 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/clean_data_central_africa.xlsx
+++ b/output/clean_data_central_africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>country_index</t>
   </si>
@@ -55,21 +55,21 @@
     <t>pct_agriculture_employment</t>
   </si>
   <si>
+    <t>pct_industry_employment</t>
+  </si>
+  <si>
+    <t>pct_services_employment</t>
+  </si>
+  <si>
+    <t>exports_pct_gdp</t>
+  </si>
+  <si>
+    <t>fdi_pct_gdp</t>
+  </si>
+  <si>
     <t>gni_index</t>
   </si>
   <si>
-    <t>pct_industry_employment</t>
-  </si>
-  <si>
-    <t>pct_services_employment</t>
-  </si>
-  <si>
-    <t>exports_pct_gdp</t>
-  </si>
-  <si>
-    <t>fdi_pct_gdp</t>
-  </si>
-  <si>
     <t>gdp_usd</t>
   </si>
   <si>
@@ -82,6 +82,12 @@
     <t>internet_usage_pct</t>
   </si>
   <si>
+    <t>homicides_per_100k</t>
+  </si>
+  <si>
+    <t>adult_literacy_pct</t>
+  </si>
+  <si>
     <t>child_mortality_per_1k</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>women_in_parliament</t>
   </si>
   <si>
+    <t>tax_revenue_pct_gdp</t>
+  </si>
+  <si>
     <t>unemployment_pct</t>
   </si>
   <si>
@@ -98,9 +107,6 @@
   </si>
   <si>
     <t>urban_population_growth_pct</t>
-  </si>
-  <si>
-    <t>m_income_group</t>
   </si>
   <si>
     <t>m_access_to_electricity_pop</t>
@@ -629,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,25 +804,31 @@
       <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -831,7 +843,7 @@
         <v>0.044485376</v>
       </c>
       <c r="K2">
-        <v>9.751295336787564</v>
+        <v>9.755208333333334</v>
       </c>
       <c r="L2">
         <v>12.70699978</v>
@@ -843,19 +855,19 @@
         <v>91.10299683</v>
       </c>
       <c r="O2">
+        <v>2.549000025</v>
+      </c>
+      <c r="P2">
+        <v>6.34800005</v>
+      </c>
+      <c r="Q2">
+        <v>7.76818252</v>
+      </c>
+      <c r="R2">
+        <v>2.642421428</v>
+      </c>
+      <c r="S2">
         <v>290</v>
-      </c>
-      <c r="P2">
-        <v>2.549000025</v>
-      </c>
-      <c r="Q2">
-        <v>6.34800005</v>
-      </c>
-      <c r="R2">
-        <v>7.76818252</v>
-      </c>
-      <c r="S2">
-        <v>2.642421428</v>
       </c>
       <c r="T2">
         <v>3093647227</v>
@@ -870,32 +882,32 @@
         <v>1.38</v>
       </c>
       <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>61.56972885</v>
+      </c>
+      <c r="Z2">
         <v>77.90000000000001</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>47.08506861</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>30.5</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD2">
         <v>1.570000052</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <v>11.761</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>5.480228006</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
         <v>0</v>
       </c>
@@ -903,14 +915,14 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
       <c r="AL2">
         <v>0</v>
       </c>
@@ -954,36 +966,42 @@
         <v>0</v>
       </c>
       <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
         <v>1</v>
       </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3">
         <v>87.87672424</v>
@@ -1010,19 +1028,19 @@
         <v>68.65499878</v>
       </c>
       <c r="O3">
+        <v>6.922999859</v>
+      </c>
+      <c r="P3">
+        <v>24.42200089</v>
+      </c>
+      <c r="Q3">
+        <v>40.36113967</v>
+      </c>
+      <c r="R3">
+        <v>9.718943229000001</v>
+      </c>
+      <c r="S3">
         <v>3310</v>
-      </c>
-      <c r="P3">
-        <v>6.922999859</v>
-      </c>
-      <c r="Q3">
-        <v>24.42200089</v>
-      </c>
-      <c r="R3">
-        <v>40.36113967</v>
-      </c>
-      <c r="S3">
-        <v>9.718943229000001</v>
       </c>
       <c r="T3">
         <v>1858121723</v>
@@ -1037,32 +1055,32 @@
         <v>40.26</v>
       </c>
       <c r="X3">
+        <v>12.6</v>
+      </c>
+      <c r="Y3">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z3">
         <v>23</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>42.09588617</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>20.8</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD3">
         <v>10.34799957</v>
       </c>
-      <c r="AB3">
+      <c r="AE3">
         <v>64.84</v>
       </c>
-      <c r="AC3">
+      <c r="AF3">
         <v>2.315808738</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
       <c r="AG3">
         <v>0</v>
       </c>
@@ -1100,57 +1118,63 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
         <v>1</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
       <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>1</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
       <c r="AY3">
         <v>0</v>
       </c>
       <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
         <v>1</v>
       </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4">
         <v>72.91772460999999</v>
@@ -1177,19 +1201,19 @@
         <v>54.98300171</v>
       </c>
       <c r="O4">
+        <v>15.57699966</v>
+      </c>
+      <c r="P4">
+        <v>29.44099998</v>
+      </c>
+      <c r="Q4">
+        <v>16.87471351</v>
+      </c>
+      <c r="R4">
+        <v>0.72227588</v>
+      </c>
+      <c r="S4">
         <v>830</v>
-      </c>
-      <c r="P4">
-        <v>15.57699966</v>
-      </c>
-      <c r="Q4">
-        <v>29.44099998</v>
-      </c>
-      <c r="R4">
-        <v>16.87471351</v>
-      </c>
-      <c r="S4">
-        <v>0.72227588</v>
       </c>
       <c r="T4">
         <v>647720707.1</v>
@@ -1204,32 +1228,32 @@
         <v>6.98</v>
       </c>
       <c r="X4">
+        <v>2.5</v>
+      </c>
+      <c r="Y4">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z4">
         <v>78.3</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>17.11820358</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>3</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD4">
         <v>4.361999989</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>28.193</v>
       </c>
-      <c r="AC4">
+      <c r="AF4">
         <v>2.699437729</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
       <c r="AG4">
         <v>0</v>
       </c>
@@ -1273,51 +1297,57 @@
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>1</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>1</v>
       </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
       <c r="AY4">
         <v>0</v>
       </c>
       <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
         <v>1</v>
       </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57">
       <c r="A5" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>13.5</v>
@@ -1344,19 +1374,19 @@
         <v>81.34899901999999</v>
       </c>
       <c r="O5">
+        <v>12.20400047</v>
+      </c>
+      <c r="P5">
+        <v>6.447000027</v>
+      </c>
+      <c r="Q5">
+        <v>36.83218885</v>
+      </c>
+      <c r="R5">
+        <v>5.131664248</v>
+      </c>
+      <c r="S5">
         <v>440</v>
-      </c>
-      <c r="P5">
-        <v>12.20400047</v>
-      </c>
-      <c r="Q5">
-        <v>6.447000027</v>
-      </c>
-      <c r="R5">
-        <v>36.83218885</v>
-      </c>
-      <c r="S5">
-        <v>5.131664248</v>
       </c>
       <c r="T5">
         <v>35917650630</v>
@@ -1371,32 +1401,32 @@
         <v>3</v>
       </c>
       <c r="X5">
+        <v>2.5</v>
+      </c>
+      <c r="Y5">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z5">
         <v>101</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>46.57451961</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>10.6</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD5">
         <v>3.707999945</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>41.976</v>
       </c>
-      <c r="AC5">
+      <c r="AF5">
         <v>4.553658283</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
         <v>0</v>
       </c>
@@ -1440,51 +1470,57 @@
         <v>0</v>
       </c>
       <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>1</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>1</v>
       </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
         <v>1</v>
       </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <v>51.86239243</v>
@@ -1511,19 +1547,19 @@
         <v>38.22900009</v>
       </c>
       <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>36.77099991</v>
+      </c>
+      <c r="Q6">
+        <v>72.98675034</v>
+      </c>
+      <c r="R6">
+        <v>20.36515297</v>
+      </c>
+      <c r="S6">
         <v>2520</v>
-      </c>
-      <c r="P6">
-        <v>25</v>
-      </c>
-      <c r="Q6">
-        <v>36.77099991</v>
-      </c>
-      <c r="R6">
-        <v>72.98675034</v>
-      </c>
-      <c r="S6">
-        <v>20.36515297</v>
       </c>
       <c r="T6">
         <v>14177437982</v>
@@ -1538,32 +1574,32 @@
         <v>7.11</v>
       </c>
       <c r="X6">
+        <v>2.5</v>
+      </c>
+      <c r="Y6">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z6">
         <v>56.5</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>53.17355571</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>7.4</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD6">
         <v>9.998000145000001</v>
       </c>
-      <c r="AB6">
+      <c r="AE6">
         <v>64.95699999999999</v>
       </c>
-      <c r="AC6">
+      <c r="AF6">
         <v>3.146204713</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
         <v>0</v>
       </c>
@@ -1607,51 +1643,57 @@
         <v>0</v>
       </c>
       <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>1</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>1</v>
       </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
         <v>1</v>
       </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57">
       <c r="A7" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7">
         <v>61.9</v>
@@ -1678,19 +1720,19 @@
         <v>50.375</v>
       </c>
       <c r="O7">
+        <v>5.986000061</v>
+      </c>
+      <c r="P7">
+        <v>43.63999939</v>
+      </c>
+      <c r="Q7">
+        <v>36.6588334</v>
+      </c>
+      <c r="R7">
+        <v>1.240430526</v>
+      </c>
+      <c r="S7">
         <v>1460</v>
-      </c>
-      <c r="P7">
-        <v>5.986000061</v>
-      </c>
-      <c r="Q7">
-        <v>43.63999939</v>
-      </c>
-      <c r="R7">
-        <v>36.6588334</v>
-      </c>
-      <c r="S7">
-        <v>1.240430526</v>
       </c>
       <c r="T7">
         <v>35372603446</v>
@@ -1705,32 +1747,32 @@
         <v>19.2742298</v>
       </c>
       <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>43.90842056</v>
+      </c>
+      <c r="Z7">
         <v>98.3</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>26.27654966</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>9.4</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
+        <v>13.97364016</v>
+      </c>
+      <c r="AD7">
         <v>2.747999907</v>
       </c>
-      <c r="AB7">
+      <c r="AE7">
         <v>53.479</v>
       </c>
-      <c r="AC7">
+      <c r="AF7">
         <v>3.881971936</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
         <v>0</v>
       </c>
@@ -1774,14 +1816,14 @@
         <v>0</v>
       </c>
       <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
         <v>1</v>
       </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
       <c r="AX7">
         <v>0</v>
       </c>
@@ -1800,25 +1842,31 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8">
         <v>67.05870819</v>
@@ -1845,19 +1893,19 @@
         <v>54.96300125</v>
       </c>
       <c r="O8">
+        <v>8.237000464999999</v>
+      </c>
+      <c r="P8">
+        <v>36.79999924</v>
+      </c>
+      <c r="Q8">
+        <v>65.9632886</v>
+      </c>
+      <c r="R8">
+        <v>0.772319187</v>
+      </c>
+      <c r="S8">
         <v>13140</v>
-      </c>
-      <c r="P8">
-        <v>8.237000464999999</v>
-      </c>
-      <c r="Q8">
-        <v>36.79999924</v>
-      </c>
-      <c r="R8">
-        <v>65.9632886</v>
-      </c>
-      <c r="S8">
-        <v>0.772319187</v>
       </c>
       <c r="T8">
         <v>21736500713</v>
@@ -1872,32 +1920,32 @@
         <v>18.86</v>
       </c>
       <c r="X8">
+        <v>2.5</v>
+      </c>
+      <c r="Y8">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z8">
         <v>97.09999999999999</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>46.69405811</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>24</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
+        <v>8.298900808000001</v>
+      </c>
+      <c r="AD8">
         <v>5.494999886</v>
       </c>
-      <c r="AB8">
+      <c r="AE8">
         <v>39.756</v>
       </c>
-      <c r="AC8">
+      <c r="AF8">
         <v>4.514037661</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
@@ -1941,17 +1989,17 @@
         <v>0</v>
       </c>
       <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
         <v>1</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>1</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
       <c r="AY8">
         <v>0</v>
       </c>
@@ -1967,25 +2015,31 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G9">
         <v>78.3</v>
@@ -2012,19 +2066,19 @@
         <v>44.72000122</v>
       </c>
       <c r="O9">
+        <v>14.10700035</v>
+      </c>
+      <c r="P9">
+        <v>41.17300034</v>
+      </c>
+      <c r="Q9">
+        <v>39.52355867</v>
+      </c>
+      <c r="R9">
+        <v>8.604962551</v>
+      </c>
+      <c r="S9">
         <v>1590</v>
-      </c>
-      <c r="P9">
-        <v>14.10700035</v>
-      </c>
-      <c r="Q9">
-        <v>41.17300034</v>
-      </c>
-      <c r="R9">
-        <v>39.52355867</v>
-      </c>
-      <c r="S9">
-        <v>8.604962551</v>
       </c>
       <c r="T9">
         <v>39086625009</v>
@@ -2039,32 +2093,32 @@
         <v>25.51773743</v>
       </c>
       <c r="X9">
+        <v>2.5</v>
+      </c>
+      <c r="Y9">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z9">
         <v>63.4</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>25.35736494</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>10.9</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD9">
         <v>2.164000034</v>
       </c>
-      <c r="AB9">
+      <c r="AE9">
         <v>53.392</v>
       </c>
-      <c r="AC9">
+      <c r="AF9">
         <v>3.550496942</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
         <v>0</v>
       </c>
@@ -2108,51 +2162,57 @@
         <v>0</v>
       </c>
       <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>1</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>1</v>
       </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
       <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
         <v>1</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57">
       <c r="A10" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10">
         <v>36</v>
@@ -2179,19 +2239,19 @@
         <v>37.63899994</v>
       </c>
       <c r="O10">
+        <v>14.90200043</v>
+      </c>
+      <c r="P10">
+        <v>47.45899963</v>
+      </c>
+      <c r="Q10">
+        <v>18.29698092</v>
+      </c>
+      <c r="R10">
+        <v>1.335986481</v>
+      </c>
+      <c r="S10">
         <v>1260</v>
-      </c>
-      <c r="P10">
-        <v>14.90200043</v>
-      </c>
-      <c r="Q10">
-        <v>47.45899963</v>
-      </c>
-      <c r="R10">
-        <v>18.29698092</v>
-      </c>
-      <c r="S10">
-        <v>1.335986481</v>
       </c>
       <c r="T10">
         <v>61448046802</v>
@@ -2206,32 +2266,32 @@
         <v>16.5</v>
       </c>
       <c r="X10">
+        <v>5.9</v>
+      </c>
+      <c r="Y10">
+        <v>78.73303986000001</v>
+      </c>
+      <c r="Z10">
         <v>53.5</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>16.52198912</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>19.1</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
+        <v>16.87697939</v>
+      </c>
+      <c r="AD10">
         <v>11.66699982</v>
       </c>
-      <c r="AB10">
+      <c r="AE10">
         <v>25.197</v>
       </c>
-      <c r="AC10">
+      <c r="AF10">
         <v>4.304922007</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
         <v>0</v>
       </c>
@@ -2301,25 +2361,31 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57">
       <c r="A11" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11">
         <v>56.37191391</v>
@@ -2346,19 +2412,19 @@
         <v>36.77999878</v>
       </c>
       <c r="O11">
+        <v>12.06200027</v>
+      </c>
+      <c r="P11">
+        <v>51.1590004</v>
+      </c>
+      <c r="Q11">
+        <v>18.43512605</v>
+      </c>
+      <c r="R11">
+        <v>0.818201344</v>
+      </c>
+      <c r="S11">
         <v>2980</v>
-      </c>
-      <c r="P11">
-        <v>12.06200027</v>
-      </c>
-      <c r="Q11">
-        <v>51.1590004</v>
-      </c>
-      <c r="R11">
-        <v>18.43512605</v>
-      </c>
-      <c r="S11">
-        <v>0.818201344</v>
       </c>
       <c r="T11">
         <v>568499000000</v>
@@ -2373,32 +2439,32 @@
         <v>21</v>
       </c>
       <c r="X11">
+        <v>2.5</v>
+      </c>
+      <c r="Y11">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z11">
         <v>111.6</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>41.60273017</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>6.7</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD11">
         <v>4.559999943</v>
       </c>
-      <c r="AB11">
+      <c r="AE11">
         <v>46.942</v>
       </c>
-      <c r="AC11">
+      <c r="AF11">
         <v>4.48255153</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
       <c r="AG11">
         <v>0</v>
       </c>
@@ -2442,51 +2508,57 @@
         <v>0</v>
       </c>
       <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>1</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>1</v>
       </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
       <c r="AY11">
         <v>0</v>
       </c>
       <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
         <v>1</v>
       </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
       <c r="BC11">
         <v>0</v>
       </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:57">
       <c r="A12" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12">
         <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12">
         <v>19.8</v>
@@ -2513,19 +2585,19 @@
         <v>68.45300293</v>
       </c>
       <c r="O12">
+        <v>7.913000107</v>
+      </c>
+      <c r="P12">
+        <v>23.63400078</v>
+      </c>
+      <c r="Q12">
+        <v>14.72211453</v>
+      </c>
+      <c r="R12">
+        <v>3.926137464</v>
+      </c>
+      <c r="S12">
         <v>700</v>
-      </c>
-      <c r="P12">
-        <v>7.913000107</v>
-      </c>
-      <c r="Q12">
-        <v>23.63400078</v>
-      </c>
-      <c r="R12">
-        <v>14.72211453</v>
-      </c>
-      <c r="S12">
-        <v>3.926137464</v>
       </c>
       <c r="T12">
         <v>8016591928</v>
@@ -2540,32 +2612,32 @@
         <v>10.6</v>
       </c>
       <c r="X12">
+        <v>2.5</v>
+      </c>
+      <c r="Y12">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z12">
         <v>43.4</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>51.86310993</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>63.8</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
+        <v>13.31802943</v>
+      </c>
+      <c r="AD12">
         <v>1.169999957</v>
       </c>
-      <c r="AB12">
+      <c r="AE12">
         <v>27.841</v>
       </c>
-      <c r="AC12">
+      <c r="AF12">
         <v>6.054470586</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
       <c r="AG12">
         <v>0</v>
       </c>
@@ -2609,17 +2681,17 @@
         <v>0</v>
       </c>
       <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
         <v>1</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>1</v>
       </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
       <c r="AY12">
         <v>0</v>
       </c>
@@ -2635,25 +2707,31 @@
       <c r="BC12">
         <v>0</v>
       </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:57">
       <c r="A13" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13">
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13">
         <v>61</v>
@@ -2680,19 +2758,19 @@
         <v>53.67399979</v>
       </c>
       <c r="O13">
+        <v>20.20499992</v>
+      </c>
+      <c r="P13">
+        <v>26.12100029</v>
+      </c>
+      <c r="Q13">
+        <v>28.12071229</v>
+      </c>
+      <c r="R13">
+        <v>2.630373382</v>
+      </c>
+      <c r="S13">
         <v>1030</v>
-      </c>
-      <c r="P13">
-        <v>20.20499992</v>
-      </c>
-      <c r="Q13">
-        <v>26.12100029</v>
-      </c>
-      <c r="R13">
-        <v>28.12071229</v>
-      </c>
-      <c r="S13">
-        <v>2.630373382</v>
       </c>
       <c r="T13">
         <v>15304363138</v>
@@ -2707,32 +2785,32 @@
         <v>17.7</v>
       </c>
       <c r="X13">
+        <v>2.5</v>
+      </c>
+      <c r="Y13">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z13">
         <v>52.3</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>35.99474681</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>43.3</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
+        <v>19.6238999</v>
+      </c>
+      <c r="AD13">
         <v>6.356999874</v>
       </c>
-      <c r="AB13">
+      <c r="AE13">
         <v>43.393</v>
       </c>
-      <c r="AC13">
+      <c r="AF13">
         <v>3.697122779</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
       <c r="AG13">
         <v>0</v>
       </c>
@@ -2776,17 +2854,17 @@
         <v>0</v>
       </c>
       <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
         <v>1</v>
       </c>
-      <c r="AV13">
+      <c r="AX13">
         <v>1</v>
       </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
       <c r="AY13">
         <v>0</v>
       </c>
@@ -2802,25 +2880,31 @@
       <c r="BC13">
         <v>0</v>
       </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:57">
       <c r="A14" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14">
         <v>44.9</v>
@@ -2847,19 +2931,19 @@
         <v>53.35599899</v>
       </c>
       <c r="O14">
+        <v>18.83399963</v>
+      </c>
+      <c r="P14">
+        <v>27.80999947</v>
+      </c>
+      <c r="Q14">
+        <v>8.149134518</v>
+      </c>
+      <c r="R14">
+        <v>1.523136574</v>
+      </c>
+      <c r="S14">
         <v>1830</v>
-      </c>
-      <c r="P14">
-        <v>18.83399963</v>
-      </c>
-      <c r="Q14">
-        <v>27.80999947</v>
-      </c>
-      <c r="R14">
-        <v>8.149134518</v>
-      </c>
-      <c r="S14">
-        <v>1.523136574</v>
       </c>
       <c r="T14">
         <v>82151588419</v>
@@ -2874,32 +2958,32 @@
         <v>24.64</v>
       </c>
       <c r="X14">
+        <v>2.5</v>
+      </c>
+      <c r="Y14">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z14">
         <v>69</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>52.51987476</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>24.3</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD14">
         <v>12.74800014</v>
       </c>
-      <c r="AB14">
+      <c r="AE14">
         <v>33.623</v>
       </c>
-      <c r="AC14">
+      <c r="AF14">
         <v>2.867143272</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
         <v>0</v>
       </c>
@@ -2943,51 +3027,57 @@
         <v>0</v>
       </c>
       <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>1</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>1</v>
       </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
       <c r="AY14">
         <v>0</v>
       </c>
       <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
         <v>1</v>
       </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
       <c r="BC14">
         <v>0</v>
       </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:57">
       <c r="A15" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15">
         <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15">
         <v>20.4</v>
@@ -3014,19 +3104,19 @@
         <v>71.54699707</v>
       </c>
       <c r="O15">
+        <v>6.887000084</v>
+      </c>
+      <c r="P15">
+        <v>21.56500053</v>
+      </c>
+      <c r="Q15">
+        <v>18.17025675</v>
+      </c>
+      <c r="R15">
+        <v>3.878679401</v>
+      </c>
+      <c r="S15">
         <v>660</v>
-      </c>
-      <c r="P15">
-        <v>6.887000084</v>
-      </c>
-      <c r="Q15">
-        <v>21.56500053</v>
-      </c>
-      <c r="R15">
-        <v>18.17025675</v>
-      </c>
-      <c r="S15">
-        <v>3.878679401</v>
       </c>
       <c r="T15">
         <v>27291880327</v>
@@ -3041,32 +3131,32 @@
         <v>16.9</v>
       </c>
       <c r="X15">
+        <v>11.8</v>
+      </c>
+      <c r="Y15">
+        <v>91.98120117000001</v>
+      </c>
+      <c r="Z15">
         <v>60.1</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>61.38641667</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>35</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
+        <v>16.96739149</v>
+      </c>
+      <c r="AD15">
         <v>1.907999992</v>
       </c>
-      <c r="AB15">
+      <c r="AE15">
         <v>15.766</v>
       </c>
-      <c r="AC15">
+      <c r="AF15">
         <v>5.459493493</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
       <c r="AG15">
         <v>0</v>
       </c>
@@ -3113,27 +3203,33 @@
         <v>0</v>
       </c>
       <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>1</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
       <c r="AY15">
         <v>0</v>
       </c>
       <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
         <v>1</v>
       </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
       <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
         <v>0</v>
       </c>
     </row>

--- a/output/clean_data_central_africa.xlsx
+++ b/output/clean_data_central_africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>country_index</t>
   </si>
@@ -55,21 +55,21 @@
     <t>pct_agriculture_employment</t>
   </si>
   <si>
+    <t>pct_industry_employment</t>
+  </si>
+  <si>
+    <t>pct_services_employment</t>
+  </si>
+  <si>
+    <t>exports_pct_gdp</t>
+  </si>
+  <si>
+    <t>fdi_pct_gdp</t>
+  </si>
+  <si>
     <t>gni_index</t>
   </si>
   <si>
-    <t>pct_industry_employment</t>
-  </si>
-  <si>
-    <t>pct_services_employment</t>
-  </si>
-  <si>
-    <t>exports_pct_gdp</t>
-  </si>
-  <si>
-    <t>fdi_pct_gdp</t>
-  </si>
-  <si>
     <t>gdp_usd</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
     <t>urban_population_growth_pct</t>
   </si>
   <si>
-    <t>m_income_group</t>
-  </si>
-  <si>
     <t>m_access_to_electricity_pop</t>
   </si>
   <si>
@@ -151,12 +148,6 @@
     <t>m_internet_usage_pct</t>
   </si>
   <si>
-    <t>m_homicides_per_100k</t>
-  </si>
-  <si>
-    <t>m_adult_literacy_pct</t>
-  </si>
-  <si>
     <t>m_child_mortality_per_1k</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
   </si>
   <si>
     <t>m_women_in_parliament</t>
-  </si>
-  <si>
-    <t>m_tax_revenue_pct_gdp</t>
   </si>
   <si>
     <t>m_unemployment_pct</t>
@@ -629,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC15"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,37 +774,25 @@
       <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -831,7 +807,7 @@
         <v>0.044485376</v>
       </c>
       <c r="K2">
-        <v>9.751295336787564</v>
+        <v>9.755208333333334</v>
       </c>
       <c r="L2">
         <v>12.70699978</v>
@@ -843,19 +819,19 @@
         <v>91.10299683</v>
       </c>
       <c r="O2">
+        <v>2.549000025</v>
+      </c>
+      <c r="P2">
+        <v>6.34800005</v>
+      </c>
+      <c r="Q2">
+        <v>7.76818252</v>
+      </c>
+      <c r="R2">
+        <v>2.642421428</v>
+      </c>
+      <c r="S2">
         <v>290</v>
-      </c>
-      <c r="P2">
-        <v>2.549000025</v>
-      </c>
-      <c r="Q2">
-        <v>6.34800005</v>
-      </c>
-      <c r="R2">
-        <v>7.76818252</v>
-      </c>
-      <c r="S2">
-        <v>2.642421428</v>
       </c>
       <c r="T2">
         <v>3093647227</v>
@@ -900,90 +876,78 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51">
+      <c r="A3" s="1">
         <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>1</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55">
-      <c r="A3" s="1">
-        <v>33</v>
       </c>
       <c r="B3">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>87.87672424</v>
@@ -1010,19 +974,19 @@
         <v>68.65499878</v>
       </c>
       <c r="O3">
+        <v>6.922999859</v>
+      </c>
+      <c r="P3">
+        <v>24.42200089</v>
+      </c>
+      <c r="Q3">
+        <v>40.36113967</v>
+      </c>
+      <c r="R3">
+        <v>9.718943229000001</v>
+      </c>
+      <c r="S3">
         <v>3310</v>
-      </c>
-      <c r="P3">
-        <v>6.922999859</v>
-      </c>
-      <c r="Q3">
-        <v>24.42200089</v>
-      </c>
-      <c r="R3">
-        <v>40.36113967</v>
-      </c>
-      <c r="S3">
-        <v>9.718943229000001</v>
       </c>
       <c r="T3">
         <v>1858121723</v>
@@ -1097,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1109,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1120,37 +1084,25 @@
       <c r="AY3">
         <v>0</v>
       </c>
-      <c r="AZ3">
-        <v>1</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:51">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>72.91772460999999</v>
@@ -1177,19 +1129,19 @@
         <v>54.98300171</v>
       </c>
       <c r="O4">
+        <v>15.57699966</v>
+      </c>
+      <c r="P4">
+        <v>29.44099998</v>
+      </c>
+      <c r="Q4">
+        <v>16.87471351</v>
+      </c>
+      <c r="R4">
+        <v>0.72227588</v>
+      </c>
+      <c r="S4">
         <v>830</v>
-      </c>
-      <c r="P4">
-        <v>15.57699966</v>
-      </c>
-      <c r="Q4">
-        <v>29.44099998</v>
-      </c>
-      <c r="R4">
-        <v>16.87471351</v>
-      </c>
-      <c r="S4">
-        <v>0.72227588</v>
       </c>
       <c r="T4">
         <v>647720707.1</v>
@@ -1273,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1287,37 +1239,25 @@
       <c r="AY4">
         <v>0</v>
       </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:51">
       <c r="A5" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>13.5</v>
@@ -1344,19 +1284,19 @@
         <v>81.34899901999999</v>
       </c>
       <c r="O5">
+        <v>12.20400047</v>
+      </c>
+      <c r="P5">
+        <v>6.447000027</v>
+      </c>
+      <c r="Q5">
+        <v>36.83218885</v>
+      </c>
+      <c r="R5">
+        <v>5.131664248</v>
+      </c>
+      <c r="S5">
         <v>440</v>
-      </c>
-      <c r="P5">
-        <v>12.20400047</v>
-      </c>
-      <c r="Q5">
-        <v>6.447000027</v>
-      </c>
-      <c r="R5">
-        <v>36.83218885</v>
-      </c>
-      <c r="S5">
-        <v>5.131664248</v>
       </c>
       <c r="T5">
         <v>35917650630</v>
@@ -1440,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -1454,37 +1394,25 @@
       <c r="AY5">
         <v>0</v>
       </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:51">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G6">
         <v>51.86239243</v>
@@ -1511,19 +1439,19 @@
         <v>38.22900009</v>
       </c>
       <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>36.77099991</v>
+      </c>
+      <c r="Q6">
+        <v>72.98675034</v>
+      </c>
+      <c r="R6">
+        <v>20.36515297</v>
+      </c>
+      <c r="S6">
         <v>2520</v>
-      </c>
-      <c r="P6">
-        <v>25</v>
-      </c>
-      <c r="Q6">
-        <v>36.77099991</v>
-      </c>
-      <c r="R6">
-        <v>72.98675034</v>
-      </c>
-      <c r="S6">
-        <v>20.36515297</v>
       </c>
       <c r="T6">
         <v>14177437982</v>
@@ -1607,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -1621,37 +1549,25 @@
       <c r="AY6">
         <v>0</v>
       </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:51">
       <c r="A7" s="1">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>61.9</v>
@@ -1678,19 +1594,19 @@
         <v>50.375</v>
       </c>
       <c r="O7">
+        <v>5.986000061</v>
+      </c>
+      <c r="P7">
+        <v>43.63999939</v>
+      </c>
+      <c r="Q7">
+        <v>36.6588334</v>
+      </c>
+      <c r="R7">
+        <v>1.240430526</v>
+      </c>
+      <c r="S7">
         <v>1460</v>
-      </c>
-      <c r="P7">
-        <v>5.986000061</v>
-      </c>
-      <c r="Q7">
-        <v>43.63999939</v>
-      </c>
-      <c r="R7">
-        <v>36.6588334</v>
-      </c>
-      <c r="S7">
-        <v>1.240430526</v>
       </c>
       <c r="T7">
         <v>35372603446</v>
@@ -1774,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7">
         <v>0</v>
@@ -1788,37 +1704,25 @@
       <c r="AY7">
         <v>0</v>
       </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:51">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>67.05870819</v>
@@ -1845,19 +1749,19 @@
         <v>54.96300125</v>
       </c>
       <c r="O8">
+        <v>8.237000464999999</v>
+      </c>
+      <c r="P8">
+        <v>36.79999924</v>
+      </c>
+      <c r="Q8">
+        <v>65.9632886</v>
+      </c>
+      <c r="R8">
+        <v>0.772319187</v>
+      </c>
+      <c r="S8">
         <v>13140</v>
-      </c>
-      <c r="P8">
-        <v>8.237000464999999</v>
-      </c>
-      <c r="Q8">
-        <v>36.79999924</v>
-      </c>
-      <c r="R8">
-        <v>65.9632886</v>
-      </c>
-      <c r="S8">
-        <v>0.772319187</v>
       </c>
       <c r="T8">
         <v>21736500713</v>
@@ -1941,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -1955,37 +1859,25 @@
       <c r="AY8">
         <v>0</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:51">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>78.3</v>
@@ -2012,19 +1904,19 @@
         <v>44.72000122</v>
       </c>
       <c r="O9">
+        <v>14.10700035</v>
+      </c>
+      <c r="P9">
+        <v>41.17300034</v>
+      </c>
+      <c r="Q9">
+        <v>39.52355867</v>
+      </c>
+      <c r="R9">
+        <v>8.604962551</v>
+      </c>
+      <c r="S9">
         <v>1590</v>
-      </c>
-      <c r="P9">
-        <v>14.10700035</v>
-      </c>
-      <c r="Q9">
-        <v>41.17300034</v>
-      </c>
-      <c r="R9">
-        <v>39.52355867</v>
-      </c>
-      <c r="S9">
-        <v>8.604962551</v>
       </c>
       <c r="T9">
         <v>39086625009</v>
@@ -2108,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
         <v>0</v>
@@ -2122,37 +2014,25 @@
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9">
-        <v>1</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:51">
       <c r="A10" s="1">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>36</v>
@@ -2179,19 +2059,19 @@
         <v>37.63899994</v>
       </c>
       <c r="O10">
+        <v>14.90200043</v>
+      </c>
+      <c r="P10">
+        <v>47.45899963</v>
+      </c>
+      <c r="Q10">
+        <v>18.29698092</v>
+      </c>
+      <c r="R10">
+        <v>1.335986481</v>
+      </c>
+      <c r="S10">
         <v>1260</v>
-      </c>
-      <c r="P10">
-        <v>14.90200043</v>
-      </c>
-      <c r="Q10">
-        <v>47.45899963</v>
-      </c>
-      <c r="R10">
-        <v>18.29698092</v>
-      </c>
-      <c r="S10">
-        <v>1.335986481</v>
       </c>
       <c r="T10">
         <v>61448046802</v>
@@ -2289,37 +2169,25 @@
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:51">
       <c r="A11" s="1">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G11">
         <v>56.37191391</v>
@@ -2346,19 +2214,19 @@
         <v>36.77999878</v>
       </c>
       <c r="O11">
+        <v>12.06200027</v>
+      </c>
+      <c r="P11">
+        <v>51.1590004</v>
+      </c>
+      <c r="Q11">
+        <v>18.43512605</v>
+      </c>
+      <c r="R11">
+        <v>0.818201344</v>
+      </c>
+      <c r="S11">
         <v>2980</v>
-      </c>
-      <c r="P11">
-        <v>12.06200027</v>
-      </c>
-      <c r="Q11">
-        <v>51.1590004</v>
-      </c>
-      <c r="R11">
-        <v>18.43512605</v>
-      </c>
-      <c r="S11">
-        <v>0.818201344</v>
       </c>
       <c r="T11">
         <v>568499000000</v>
@@ -2442,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -2456,37 +2324,25 @@
       <c r="AY11">
         <v>0</v>
       </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:51">
       <c r="A12" s="1">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
       </c>
       <c r="G12">
         <v>19.8</v>
@@ -2513,19 +2369,19 @@
         <v>68.45300293</v>
       </c>
       <c r="O12">
+        <v>7.913000107</v>
+      </c>
+      <c r="P12">
+        <v>23.63400078</v>
+      </c>
+      <c r="Q12">
+        <v>14.72211453</v>
+      </c>
+      <c r="R12">
+        <v>3.926137464</v>
+      </c>
+      <c r="S12">
         <v>700</v>
-      </c>
-      <c r="P12">
-        <v>7.913000107</v>
-      </c>
-      <c r="Q12">
-        <v>23.63400078</v>
-      </c>
-      <c r="R12">
-        <v>14.72211453</v>
-      </c>
-      <c r="S12">
-        <v>3.926137464</v>
       </c>
       <c r="T12">
         <v>8016591928</v>
@@ -2609,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12">
         <v>0</v>
@@ -2623,37 +2479,25 @@
       <c r="AY12">
         <v>0</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:51">
       <c r="A13" s="1">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G13">
         <v>61</v>
@@ -2680,19 +2524,19 @@
         <v>53.67399979</v>
       </c>
       <c r="O13">
+        <v>20.20499992</v>
+      </c>
+      <c r="P13">
+        <v>26.12100029</v>
+      </c>
+      <c r="Q13">
+        <v>28.12071229</v>
+      </c>
+      <c r="R13">
+        <v>2.630373382</v>
+      </c>
+      <c r="S13">
         <v>1030</v>
-      </c>
-      <c r="P13">
-        <v>20.20499992</v>
-      </c>
-      <c r="Q13">
-        <v>26.12100029</v>
-      </c>
-      <c r="R13">
-        <v>28.12071229</v>
-      </c>
-      <c r="S13">
-        <v>2.630373382</v>
       </c>
       <c r="T13">
         <v>15304363138</v>
@@ -2776,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13">
         <v>0</v>
@@ -2790,37 +2634,25 @@
       <c r="AY13">
         <v>0</v>
       </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:51">
       <c r="A14" s="1">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G14">
         <v>44.9</v>
@@ -2847,19 +2679,19 @@
         <v>53.35599899</v>
       </c>
       <c r="O14">
+        <v>18.83399963</v>
+      </c>
+      <c r="P14">
+        <v>27.80999947</v>
+      </c>
+      <c r="Q14">
+        <v>8.149134518</v>
+      </c>
+      <c r="R14">
+        <v>1.523136574</v>
+      </c>
+      <c r="S14">
         <v>1830</v>
-      </c>
-      <c r="P14">
-        <v>18.83399963</v>
-      </c>
-      <c r="Q14">
-        <v>27.80999947</v>
-      </c>
-      <c r="R14">
-        <v>8.149134518</v>
-      </c>
-      <c r="S14">
-        <v>1.523136574</v>
       </c>
       <c r="T14">
         <v>82151588419</v>
@@ -2943,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -2957,37 +2789,25 @@
       <c r="AY14">
         <v>0</v>
       </c>
-      <c r="AZ14">
-        <v>1</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:51">
       <c r="A15" s="1">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G15">
         <v>20.4</v>
@@ -3014,19 +2834,19 @@
         <v>71.54699707</v>
       </c>
       <c r="O15">
+        <v>6.887000084</v>
+      </c>
+      <c r="P15">
+        <v>21.56500053</v>
+      </c>
+      <c r="Q15">
+        <v>18.17025675</v>
+      </c>
+      <c r="R15">
+        <v>3.878679401</v>
+      </c>
+      <c r="S15">
         <v>660</v>
-      </c>
-      <c r="P15">
-        <v>6.887000084</v>
-      </c>
-      <c r="Q15">
-        <v>21.56500053</v>
-      </c>
-      <c r="R15">
-        <v>18.17025675</v>
-      </c>
-      <c r="S15">
-        <v>3.878679401</v>
       </c>
       <c r="T15">
         <v>27291880327</v>
@@ -3113,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15">
         <v>0</v>
@@ -3122,18 +2942,6 @@
         <v>0</v>
       </c>
       <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>1</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
         <v>0</v>
       </c>
     </row>

--- a/output/clean_data_central_africa.xlsx
+++ b/output/clean_data_central_africa.xlsx
@@ -172,24 +172,33 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
-    <t>Comoros</t>
-  </si>
-  <si>
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
     <t>Cote d'Ivoire</t>
   </si>
   <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -199,39 +208,39 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
     <t>BDI</t>
   </si>
   <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
     <t>CPV</t>
   </si>
   <si>
-    <t>COM</t>
-  </si>
-  <si>
     <t>COD</t>
   </si>
   <si>
-    <t>COG</t>
-  </si>
-  <si>
     <t>CIV</t>
   </si>
   <si>
-    <t>GNQ</t>
-  </si>
-  <si>
     <t>GHA</t>
   </si>
   <si>
@@ -241,25 +250,16 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>SEN</t>
-  </si>
-  <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>UGA</t>
-  </si>
-  <si>
     <t>Low income</t>
   </si>
   <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
     <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>Upper middle income</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
         <v>0.044485376</v>
       </c>
       <c r="K2">
-        <v>9.755208333333334</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <v>12.70699978</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -947,76 +947,76 @@
         <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>87.87672424</v>
+        <v>72.91772460999999</v>
       </c>
       <c r="H3">
-        <v>81.25119979</v>
+        <v>66.79169892</v>
       </c>
       <c r="I3">
-        <v>91.46945952999999</v>
+        <v>88.52062988</v>
       </c>
       <c r="J3">
-        <v>0.9334032370000001</v>
+        <v>0.202814119</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>17.28199959</v>
+        <v>18.89999962</v>
       </c>
       <c r="M3">
-        <v>4.796000004</v>
+        <v>9.661999701999999</v>
       </c>
       <c r="N3">
-        <v>68.65499878</v>
+        <v>54.98300171</v>
       </c>
       <c r="O3">
-        <v>6.922999859</v>
+        <v>15.57699966</v>
       </c>
       <c r="P3">
-        <v>24.42200089</v>
+        <v>29.44099998</v>
       </c>
       <c r="Q3">
-        <v>40.36113967</v>
+        <v>16.87471351</v>
       </c>
       <c r="R3">
-        <v>9.718943229000001</v>
+        <v>0.72227588</v>
       </c>
       <c r="S3">
-        <v>3310</v>
+        <v>830</v>
       </c>
       <c r="T3">
-        <v>1858121723</v>
+        <v>647720707.1</v>
       </c>
       <c r="U3">
-        <v>0.611212666</v>
+        <v>2.061639469</v>
       </c>
       <c r="V3">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="W3">
-        <v>40.26</v>
+        <v>6.98</v>
       </c>
       <c r="X3">
-        <v>23</v>
+        <v>78.3</v>
       </c>
       <c r="Y3">
-        <v>42.09588617</v>
+        <v>17.11820358</v>
       </c>
       <c r="Z3">
-        <v>20.8</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>10.34799957</v>
+        <v>4.361999989</v>
       </c>
       <c r="AB3">
-        <v>64.84</v>
+        <v>28.193</v>
       </c>
       <c r="AC3">
-        <v>2.315808738</v>
+        <v>2.699437729</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -1105,73 +1105,73 @@
         <v>79</v>
       </c>
       <c r="G4">
-        <v>72.91772460999999</v>
+        <v>51.86239243</v>
       </c>
       <c r="H4">
-        <v>66.79169892</v>
+        <v>19.23297764</v>
       </c>
       <c r="I4">
-        <v>88.52062988</v>
+        <v>69.46530914</v>
       </c>
       <c r="J4">
-        <v>0.202814119</v>
+        <v>0.635369293</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>18.89999962</v>
+        <v>5.625</v>
       </c>
       <c r="M4">
-        <v>9.661999701999999</v>
+        <v>5.31799984</v>
       </c>
       <c r="N4">
-        <v>54.98300171</v>
+        <v>38.22900009</v>
       </c>
       <c r="O4">
-        <v>15.57699966</v>
+        <v>25</v>
       </c>
       <c r="P4">
-        <v>29.44099998</v>
+        <v>36.77099991</v>
       </c>
       <c r="Q4">
-        <v>16.87471351</v>
+        <v>72.98675034</v>
       </c>
       <c r="R4">
-        <v>0.72227588</v>
+        <v>20.36515297</v>
       </c>
       <c r="S4">
-        <v>830</v>
+        <v>2520</v>
       </c>
       <c r="T4">
-        <v>647720707.1</v>
+        <v>14177437982</v>
       </c>
       <c r="U4">
-        <v>2.061639469</v>
+        <v>6.779916158</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
       <c r="W4">
-        <v>6.98</v>
+        <v>7.11</v>
       </c>
       <c r="X4">
-        <v>78.3</v>
+        <v>56.5</v>
       </c>
       <c r="Y4">
-        <v>17.11820358</v>
+        <v>53.17355571</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="AA4">
-        <v>4.361999989</v>
+        <v>9.998000145000001</v>
       </c>
       <c r="AB4">
-        <v>28.193</v>
+        <v>64.95699999999999</v>
       </c>
       <c r="AC4">
-        <v>2.699437729</v>
+        <v>3.146204713</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1257,76 +1257,76 @@
         <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5">
-        <v>13.5</v>
+        <v>19.8</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>42</v>
+        <v>71.8</v>
       </c>
       <c r="J5">
-        <v>0.06336919100000001</v>
+        <v>0.074016446</v>
       </c>
       <c r="K5">
         <v>6</v>
       </c>
       <c r="L5">
-        <v>24.9109993</v>
+        <v>12.77900028</v>
       </c>
       <c r="M5">
-        <v>10.29500008</v>
+        <v>6.039000034</v>
       </c>
       <c r="N5">
-        <v>81.34899901999999</v>
+        <v>68.45300293</v>
       </c>
       <c r="O5">
-        <v>12.20400047</v>
+        <v>7.913000107</v>
       </c>
       <c r="P5">
-        <v>6.447000027</v>
+        <v>23.63400078</v>
       </c>
       <c r="Q5">
-        <v>36.83218885</v>
+        <v>14.72211453</v>
       </c>
       <c r="R5">
-        <v>5.131664248</v>
+        <v>3.926137464</v>
       </c>
       <c r="S5">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="T5">
-        <v>35917650630</v>
+        <v>8016591928</v>
       </c>
       <c r="U5">
-        <v>9.470288097999999</v>
+        <v>7.62457575</v>
       </c>
       <c r="V5">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="X5">
-        <v>101</v>
+        <v>43.4</v>
       </c>
       <c r="Y5">
-        <v>46.57451961</v>
+        <v>51.86310993</v>
       </c>
       <c r="Z5">
-        <v>10.6</v>
+        <v>63.8</v>
       </c>
       <c r="AA5">
-        <v>3.707999945</v>
+        <v>1.169999957</v>
       </c>
       <c r="AB5">
-        <v>41.976</v>
+        <v>27.841</v>
       </c>
       <c r="AC5">
-        <v>4.553658283</v>
+        <v>6.054470586</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -1415,73 +1415,73 @@
         <v>79</v>
       </c>
       <c r="G6">
-        <v>51.86239243</v>
+        <v>61</v>
       </c>
       <c r="H6">
-        <v>19.23297764</v>
+        <v>32.7</v>
       </c>
       <c r="I6">
-        <v>69.46530914</v>
+        <v>85</v>
       </c>
       <c r="J6">
-        <v>0.635369293</v>
+        <v>0.608809117</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6">
-        <v>5.625</v>
+        <v>16.31599998</v>
       </c>
       <c r="M6">
-        <v>5.31799984</v>
+        <v>5.46999979</v>
       </c>
       <c r="N6">
-        <v>38.22900009</v>
+        <v>53.67399979</v>
       </c>
       <c r="O6">
-        <v>25</v>
+        <v>20.20499992</v>
       </c>
       <c r="P6">
-        <v>36.77099991</v>
+        <v>26.12100029</v>
       </c>
       <c r="Q6">
-        <v>72.98675034</v>
+        <v>28.12071229</v>
       </c>
       <c r="R6">
-        <v>20.36515297</v>
+        <v>2.630373382</v>
       </c>
       <c r="S6">
-        <v>2520</v>
+        <v>1030</v>
       </c>
       <c r="T6">
-        <v>14177437982</v>
+        <v>15304363138</v>
       </c>
       <c r="U6">
-        <v>6.779916158</v>
+        <v>4.075083326</v>
       </c>
       <c r="V6">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="W6">
-        <v>7.11</v>
+        <v>17.7</v>
       </c>
       <c r="X6">
-        <v>56.5</v>
+        <v>52.3</v>
       </c>
       <c r="Y6">
-        <v>53.17355571</v>
+        <v>35.99474681</v>
       </c>
       <c r="Z6">
-        <v>7.4</v>
+        <v>43.3</v>
       </c>
       <c r="AA6">
-        <v>9.998000145000001</v>
+        <v>6.356999874</v>
       </c>
       <c r="AB6">
-        <v>64.95699999999999</v>
+        <v>43.393</v>
       </c>
       <c r="AC6">
-        <v>3.146204713</v>
+        <v>3.697122779</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -1567,76 +1567,76 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7">
-        <v>61.9</v>
+        <v>20.4</v>
       </c>
       <c r="H7">
-        <v>36.54494476</v>
+        <v>10.3</v>
       </c>
       <c r="I7">
-        <v>83.9561824</v>
+        <v>51.4</v>
       </c>
       <c r="J7">
-        <v>0.490206046</v>
+        <v>0.134656001</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>18.99900055</v>
+        <v>19.75</v>
       </c>
       <c r="M7">
-        <v>8.211000443</v>
+        <v>12.92700005</v>
       </c>
       <c r="N7">
-        <v>50.375</v>
+        <v>71.54699707</v>
       </c>
       <c r="O7">
-        <v>5.986000061</v>
+        <v>6.887000084</v>
       </c>
       <c r="P7">
-        <v>43.63999939</v>
+        <v>21.56500053</v>
       </c>
       <c r="Q7">
-        <v>36.6588334</v>
+        <v>18.17025675</v>
       </c>
       <c r="R7">
-        <v>1.240430526</v>
+        <v>3.878679401</v>
       </c>
       <c r="S7">
-        <v>1460</v>
+        <v>660</v>
       </c>
       <c r="T7">
-        <v>35372603446</v>
+        <v>27291880327</v>
       </c>
       <c r="U7">
-        <v>8.79407739</v>
+        <v>5.106307324</v>
       </c>
       <c r="V7">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="W7">
-        <v>19.2742298</v>
+        <v>16.9</v>
       </c>
       <c r="X7">
-        <v>98.3</v>
+        <v>60.1</v>
       </c>
       <c r="Y7">
-        <v>26.27654966</v>
+        <v>61.38641667</v>
       </c>
       <c r="Z7">
-        <v>9.4</v>
+        <v>35</v>
       </c>
       <c r="AA7">
-        <v>2.747999907</v>
+        <v>1.907999992</v>
       </c>
       <c r="AB7">
-        <v>53.479</v>
+        <v>15.766</v>
       </c>
       <c r="AC7">
-        <v>3.881971936</v>
+        <v>5.459493493</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>67.05870819</v>
@@ -1865,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1877,76 +1877,76 @@
         <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9">
-        <v>78.3</v>
+        <v>87.87672424</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>81.25119979</v>
       </c>
       <c r="I9">
-        <v>90.8</v>
+        <v>91.46945952999999</v>
       </c>
       <c r="J9">
-        <v>0.536533378</v>
+        <v>0.9334032370000001</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>27.77700043</v>
+        <v>17.28199959</v>
       </c>
       <c r="M9">
-        <v>15.79800034</v>
+        <v>4.796000004</v>
       </c>
       <c r="N9">
-        <v>44.72000122</v>
+        <v>68.65499878</v>
       </c>
       <c r="O9">
-        <v>14.10700035</v>
+        <v>6.922999859</v>
       </c>
       <c r="P9">
-        <v>41.17300034</v>
+        <v>24.42200089</v>
       </c>
       <c r="Q9">
-        <v>39.52355867</v>
+        <v>40.36113967</v>
       </c>
       <c r="R9">
-        <v>8.604962551</v>
+        <v>9.718943229000001</v>
       </c>
       <c r="S9">
-        <v>1590</v>
+        <v>3310</v>
       </c>
       <c r="T9">
-        <v>39086625009</v>
+        <v>1858121723</v>
       </c>
       <c r="U9">
-        <v>3.985865624</v>
+        <v>0.611212666</v>
       </c>
       <c r="V9">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="W9">
-        <v>25.51773743</v>
+        <v>40.26</v>
       </c>
       <c r="X9">
-        <v>63.4</v>
+        <v>23</v>
       </c>
       <c r="Y9">
-        <v>25.35736494</v>
+        <v>42.09588617</v>
       </c>
       <c r="Z9">
-        <v>10.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA9">
-        <v>2.164000034</v>
+        <v>10.34799957</v>
       </c>
       <c r="AB9">
-        <v>53.392</v>
+        <v>64.84</v>
       </c>
       <c r="AC9">
-        <v>3.550496942</v>
+        <v>2.315808738</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -2032,76 +2032,76 @@
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="H10">
-        <v>12.6</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
-        <v>68.40000000000001</v>
+        <v>42</v>
       </c>
       <c r="J10">
-        <v>0.310415314</v>
+        <v>0.06336919100000001</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>53.45399857</v>
+        <v>24.9109993</v>
       </c>
       <c r="M10">
-        <v>25.95800018</v>
+        <v>10.29500008</v>
       </c>
       <c r="N10">
-        <v>37.63899994</v>
+        <v>81.34899901999999</v>
       </c>
       <c r="O10">
-        <v>14.90200043</v>
+        <v>12.20400047</v>
       </c>
       <c r="P10">
-        <v>47.45899963</v>
+        <v>6.447000027</v>
       </c>
       <c r="Q10">
-        <v>18.29698092</v>
+        <v>36.83218885</v>
       </c>
       <c r="R10">
-        <v>1.335986481</v>
+        <v>5.131664248</v>
       </c>
       <c r="S10">
-        <v>1260</v>
+        <v>440</v>
       </c>
       <c r="T10">
-        <v>61448046802</v>
+        <v>35917650630</v>
       </c>
       <c r="U10">
-        <v>5.357116778</v>
+        <v>9.470288097999999</v>
       </c>
       <c r="V10">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="W10">
-        <v>16.5</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>53.5</v>
+        <v>101</v>
       </c>
       <c r="Y10">
-        <v>16.52198912</v>
+        <v>46.57451961</v>
       </c>
       <c r="Z10">
-        <v>19.1</v>
+        <v>10.6</v>
       </c>
       <c r="AA10">
-        <v>11.66699982</v>
+        <v>3.707999945</v>
       </c>
       <c r="AB10">
-        <v>25.197</v>
+        <v>41.976</v>
       </c>
       <c r="AC10">
-        <v>4.304922007</v>
+        <v>4.553658283</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -2187,76 +2187,76 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11">
-        <v>56.37191391</v>
+        <v>61.9</v>
       </c>
       <c r="H11">
-        <v>31.67585522</v>
+        <v>36.54494476</v>
       </c>
       <c r="I11">
-        <v>84.2855835</v>
+        <v>83.9561824</v>
       </c>
       <c r="J11">
-        <v>0.545622113</v>
+        <v>0.490206046</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>12.18200016</v>
+        <v>18.99900055</v>
       </c>
       <c r="M11">
-        <v>9.477000237</v>
+        <v>8.211000443</v>
       </c>
       <c r="N11">
-        <v>36.77999878</v>
+        <v>50.375</v>
       </c>
       <c r="O11">
-        <v>12.06200027</v>
+        <v>5.986000061</v>
       </c>
       <c r="P11">
-        <v>51.1590004</v>
+        <v>43.63999939</v>
       </c>
       <c r="Q11">
-        <v>18.43512605</v>
+        <v>36.6588334</v>
       </c>
       <c r="R11">
-        <v>0.818201344</v>
+        <v>1.240430526</v>
       </c>
       <c r="S11">
-        <v>2980</v>
+        <v>1460</v>
       </c>
       <c r="T11">
-        <v>568499000000</v>
+        <v>35372603446</v>
       </c>
       <c r="U11">
-        <v>6.309718596</v>
+        <v>8.79407739</v>
       </c>
       <c r="V11">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="W11">
-        <v>21</v>
+        <v>19.2742298</v>
       </c>
       <c r="X11">
-        <v>111.6</v>
+        <v>98.3</v>
       </c>
       <c r="Y11">
-        <v>41.60273017</v>
+        <v>26.27654966</v>
       </c>
       <c r="Z11">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="AA11">
-        <v>4.559999943</v>
+        <v>2.747999907</v>
       </c>
       <c r="AB11">
-        <v>46.942</v>
+        <v>53.479</v>
       </c>
       <c r="AC11">
-        <v>4.48255153</v>
+        <v>3.881971936</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -2342,76 +2342,76 @@
         <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12">
-        <v>19.8</v>
+        <v>78.3</v>
       </c>
       <c r="H12">
-        <v>9.1</v>
+        <v>63</v>
       </c>
       <c r="I12">
-        <v>71.8</v>
+        <v>90.8</v>
       </c>
       <c r="J12">
-        <v>0.074016446</v>
+        <v>0.536533378</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>12.77900028</v>
+        <v>27.77700043</v>
       </c>
       <c r="M12">
-        <v>6.039000034</v>
+        <v>15.79800034</v>
       </c>
       <c r="N12">
-        <v>68.45300293</v>
+        <v>44.72000122</v>
       </c>
       <c r="O12">
-        <v>7.913000107</v>
+        <v>14.10700035</v>
       </c>
       <c r="P12">
-        <v>23.63400078</v>
+        <v>41.17300034</v>
       </c>
       <c r="Q12">
-        <v>14.72211453</v>
+        <v>39.52355867</v>
       </c>
       <c r="R12">
-        <v>3.926137464</v>
+        <v>8.604962551</v>
       </c>
       <c r="S12">
-        <v>700</v>
+        <v>1590</v>
       </c>
       <c r="T12">
-        <v>8016591928</v>
+        <v>39086625009</v>
       </c>
       <c r="U12">
-        <v>7.62457575</v>
+        <v>3.985865624</v>
       </c>
       <c r="V12">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="W12">
-        <v>10.6</v>
+        <v>25.51773743</v>
       </c>
       <c r="X12">
-        <v>43.4</v>
+        <v>63.4</v>
       </c>
       <c r="Y12">
-        <v>51.86310993</v>
+        <v>25.35736494</v>
       </c>
       <c r="Z12">
-        <v>63.8</v>
+        <v>10.9</v>
       </c>
       <c r="AA12">
-        <v>1.169999957</v>
+        <v>2.164000034</v>
       </c>
       <c r="AB12">
-        <v>27.841</v>
+        <v>53.392</v>
       </c>
       <c r="AC12">
-        <v>6.054470586</v>
+        <v>3.550496942</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -2497,76 +2497,76 @@
         <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>32.7</v>
+        <v>12.6</v>
       </c>
       <c r="I13">
-        <v>85</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J13">
-        <v>0.608809117</v>
+        <v>0.310415314</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13">
-        <v>16.31599998</v>
+        <v>53.45399857</v>
       </c>
       <c r="M13">
-        <v>5.46999979</v>
+        <v>25.95800018</v>
       </c>
       <c r="N13">
-        <v>53.67399979</v>
+        <v>37.63899994</v>
       </c>
       <c r="O13">
-        <v>20.20499992</v>
+        <v>14.90200043</v>
       </c>
       <c r="P13">
-        <v>26.12100029</v>
+        <v>47.45899963</v>
       </c>
       <c r="Q13">
-        <v>28.12071229</v>
+        <v>18.29698092</v>
       </c>
       <c r="R13">
-        <v>2.630373382</v>
+        <v>1.335986481</v>
       </c>
       <c r="S13">
-        <v>1030</v>
+        <v>1260</v>
       </c>
       <c r="T13">
-        <v>15304363138</v>
+        <v>61448046802</v>
       </c>
       <c r="U13">
-        <v>4.075083326</v>
+        <v>5.357116778</v>
       </c>
       <c r="V13">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="W13">
-        <v>17.7</v>
+        <v>16.5</v>
       </c>
       <c r="X13">
-        <v>52.3</v>
+        <v>53.5</v>
       </c>
       <c r="Y13">
-        <v>35.99474681</v>
+        <v>16.52198912</v>
       </c>
       <c r="Z13">
-        <v>43.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA13">
-        <v>6.356999874</v>
+        <v>11.66699982</v>
       </c>
       <c r="AB13">
-        <v>43.393</v>
+        <v>25.197</v>
       </c>
       <c r="AC13">
-        <v>3.697122779</v>
+        <v>4.304922007</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -2652,76 +2652,76 @@
         <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>44.9</v>
+        <v>56.37191391</v>
       </c>
       <c r="H14">
-        <v>31.7</v>
+        <v>31.67585522</v>
       </c>
       <c r="I14">
-        <v>76.3</v>
+        <v>84.2855835</v>
       </c>
       <c r="J14">
-        <v>0.299732598</v>
+        <v>0.545622113</v>
       </c>
       <c r="K14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>26.11599922</v>
+        <v>12.18200016</v>
       </c>
       <c r="M14">
-        <v>9.135000228999999</v>
+        <v>9.477000237</v>
       </c>
       <c r="N14">
-        <v>53.35599899</v>
+        <v>36.77999878</v>
       </c>
       <c r="O14">
-        <v>18.83399963</v>
+        <v>12.06200027</v>
       </c>
       <c r="P14">
-        <v>27.80999947</v>
+        <v>51.1590004</v>
       </c>
       <c r="Q14">
-        <v>8.149134518</v>
+        <v>18.43512605</v>
       </c>
       <c r="R14">
-        <v>1.523136574</v>
+        <v>0.818201344</v>
       </c>
       <c r="S14">
-        <v>1830</v>
+        <v>2980</v>
       </c>
       <c r="T14">
-        <v>82151588419</v>
+        <v>568499000000</v>
       </c>
       <c r="U14">
-        <v>2.679411813</v>
+        <v>6.309718596</v>
       </c>
       <c r="V14">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="W14">
-        <v>24.64</v>
+        <v>21</v>
       </c>
       <c r="X14">
-        <v>69</v>
+        <v>111.6</v>
       </c>
       <c r="Y14">
-        <v>52.51987476</v>
+        <v>41.60273017</v>
       </c>
       <c r="Z14">
-        <v>24.3</v>
+        <v>6.7</v>
       </c>
       <c r="AA14">
-        <v>12.74800014</v>
+        <v>4.559999943</v>
       </c>
       <c r="AB14">
-        <v>33.623</v>
+        <v>46.942</v>
       </c>
       <c r="AC14">
-        <v>2.867143272</v>
+        <v>4.48255153</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -2807,76 +2807,76 @@
         <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15">
-        <v>20.4</v>
+        <v>44.9</v>
       </c>
       <c r="H15">
-        <v>10.3</v>
+        <v>31.7</v>
       </c>
       <c r="I15">
-        <v>51.4</v>
+        <v>76.3</v>
       </c>
       <c r="J15">
-        <v>0.134656001</v>
+        <v>0.299732598</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15">
-        <v>19.75</v>
+        <v>26.11599922</v>
       </c>
       <c r="M15">
-        <v>12.92700005</v>
+        <v>9.135000228999999</v>
       </c>
       <c r="N15">
-        <v>71.54699707</v>
+        <v>53.35599899</v>
       </c>
       <c r="O15">
-        <v>6.887000084</v>
+        <v>18.83399963</v>
       </c>
       <c r="P15">
-        <v>21.56500053</v>
+        <v>27.80999947</v>
       </c>
       <c r="Q15">
-        <v>18.17025675</v>
+        <v>8.149134518</v>
       </c>
       <c r="R15">
-        <v>3.878679401</v>
+        <v>1.523136574</v>
       </c>
       <c r="S15">
-        <v>660</v>
+        <v>1830</v>
       </c>
       <c r="T15">
-        <v>27291880327</v>
+        <v>82151588419</v>
       </c>
       <c r="U15">
-        <v>5.106307324</v>
+        <v>2.679411813</v>
       </c>
       <c r="V15">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="W15">
-        <v>16.9</v>
+        <v>24.64</v>
       </c>
       <c r="X15">
-        <v>60.1</v>
+        <v>69</v>
       </c>
       <c r="Y15">
-        <v>61.38641667</v>
+        <v>52.51987476</v>
       </c>
       <c r="Z15">
-        <v>35</v>
+        <v>24.3</v>
       </c>
       <c r="AA15">
-        <v>1.907999992</v>
+        <v>12.74800014</v>
       </c>
       <c r="AB15">
-        <v>15.766</v>
+        <v>33.623</v>
       </c>
       <c r="AC15">
-        <v>5.459493493</v>
+        <v>2.867143272</v>
       </c>
       <c r="AD15">
         <v>0</v>

--- a/output/clean_data_central_africa.xlsx
+++ b/output/clean_data_central_africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>country_index</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>m_urban_population_growth_pct</t>
+  </si>
+  <si>
+    <t>m_adult_literacy_pct</t>
+  </si>
+  <si>
+    <t>m_homicides_per_100k</t>
+  </si>
+  <si>
+    <t>m_tax_revenue_pct_gdp</t>
   </si>
   <si>
     <t>Central Africa 1</t>
@@ -617,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:BB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:54">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,8 +783,17 @@
       <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -783,16 +801,16 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -929,8 +947,17 @@
       <c r="AY2">
         <v>0</v>
       </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -938,16 +965,16 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>72.91772460999999</v>
@@ -1084,8 +1111,17 @@
       <c r="AY3">
         <v>0</v>
       </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1093,16 +1129,16 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4">
         <v>51.86239243</v>
@@ -1239,8 +1275,17 @@
       <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1248,16 +1293,16 @@
         <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G5">
         <v>19.8</v>
@@ -1394,8 +1439,17 @@
       <c r="AY5">
         <v>0</v>
       </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1403,16 +1457,16 @@
         <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6">
         <v>61</v>
@@ -1549,8 +1603,17 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1558,16 +1621,16 @@
         <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <v>20.4</v>
@@ -1704,8 +1767,17 @@
       <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1713,16 +1785,16 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G8">
         <v>67.05870819</v>
@@ -1859,8 +1931,17 @@
       <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1868,16 +1949,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <v>87.87672424</v>
@@ -2014,8 +2095,17 @@
       <c r="AY9">
         <v>0</v>
       </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2023,16 +2113,16 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10">
         <v>13.5</v>
@@ -2169,8 +2259,17 @@
       <c r="AY10">
         <v>0</v>
       </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2178,16 +2277,16 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>61.9</v>
@@ -2324,8 +2423,17 @@
       <c r="AY11">
         <v>0</v>
       </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2333,16 +2441,16 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <v>78.3</v>
@@ -2479,8 +2587,17 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2488,16 +2605,16 @@
         <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G13">
         <v>36</v>
@@ -2634,8 +2751,17 @@
       <c r="AY13">
         <v>0</v>
       </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2643,16 +2769,16 @@
         <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <v>56.37191391</v>
@@ -2789,8 +2915,17 @@
       <c r="AY14">
         <v>0</v>
       </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2798,16 +2933,16 @@
         <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G15">
         <v>44.9</v>
@@ -2943,6 +3078,15 @@
       </c>
       <c r="AY15">
         <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
